--- a/XlsxTemplateTests/data/image.xlsx
+++ b/XlsxTemplateTests/data/image.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\template-go\TemplateGOTests\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\xlsx-template\XlsxTemplateTests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D872FCA9-CD7A-47EF-82A6-77218B228847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396F599A-4989-4EA9-BDC9-90130C12D5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40F13A56-BB45-4C50-B798-DA250D12F3B8}"/>
+    <workbookView xWindow="1298" yWindow="1335" windowWidth="20565" windowHeight="13800" xr2:uid="{40F13A56-BB45-4C50-B798-DA250D12F3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="大小及位置测试" sheetId="3" r:id="rId1"/>
@@ -52,10 +52,6 @@
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TemplateGO 图片测试</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -124,6 +120,10 @@
     <t>来自网络路径
 删除其它Sheet也在引用的图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XlsxTemplate 图片测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2332,9 +2332,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2372,7 +2372,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2478,7 +2478,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2620,7 +2620,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2637,14 +2637,14 @@
       <selection sqref="A1:AF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="32" width="2.625" customWidth="1"/>
+    <col min="1" max="32" width="2.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2678,7 +2678,7 @@
       <c r="AE1" s="8"/>
       <c r="AF1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -2712,13 +2712,13 @@
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
     </row>
-    <row r="3" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -2752,7 +2752,7 @@
       <c r="AE3" s="10"/>
       <c r="AF3" s="11"/>
     </row>
-    <row r="4" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2850,9 +2850,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -2875,7 +2875,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
@@ -2886,7 +2886,7 @@
       <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
     </row>
-    <row r="6" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -2918,7 +2918,7 @@
       <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
     </row>
-    <row r="7" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2950,7 +2950,7 @@
       <c r="AE7" s="6"/>
       <c r="AF7" s="6"/>
     </row>
-    <row r="8" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -2982,7 +2982,7 @@
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
     </row>
-    <row r="9" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -3014,7 +3014,7 @@
       <c r="AE9" s="6"/>
       <c r="AF9" s="6"/>
     </row>
-    <row r="10" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -3046,7 +3046,7 @@
       <c r="AE10" s="6"/>
       <c r="AF10" s="6"/>
     </row>
-    <row r="11" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -3078,7 +3078,7 @@
       <c r="AE11" s="6"/>
       <c r="AF11" s="6"/>
     </row>
-    <row r="12" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -3110,7 +3110,7 @@
       <c r="AE12" s="6"/>
       <c r="AF12" s="6"/>
     </row>
-    <row r="13" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -3142,7 +3142,7 @@
       <c r="AE13" s="6"/>
       <c r="AF13" s="6"/>
     </row>
-    <row r="14" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -3174,7 +3174,7 @@
       <c r="AE14" s="6"/>
       <c r="AF14" s="6"/>
     </row>
-    <row r="15" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -3206,7 +3206,7 @@
       <c r="AE15" s="6"/>
       <c r="AF15" s="6"/>
     </row>
-    <row r="16" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -3238,7 +3238,7 @@
       <c r="AE16" s="6"/>
       <c r="AF16" s="6"/>
     </row>
-    <row r="17" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -3270,7 +3270,7 @@
       <c r="AE17" s="6"/>
       <c r="AF17" s="6"/>
     </row>
-    <row r="18" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -3302,7 +3302,7 @@
       <c r="AE18" s="6"/>
       <c r="AF18" s="6"/>
     </row>
-    <row r="19" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -3334,7 +3334,7 @@
       <c r="AE19" s="6"/>
       <c r="AF19" s="6"/>
     </row>
-    <row r="20" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -3366,10 +3366,10 @@
       <c r="AE20" s="6"/>
       <c r="AF20" s="6"/>
     </row>
-    <row r="21" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C22" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -3392,7 +3392,7 @@
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
       <c r="X22" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
@@ -3403,7 +3403,7 @@
       <c r="AE22" s="6"/>
       <c r="AF22" s="6"/>
     </row>
-    <row r="23" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -3435,7 +3435,7 @@
       <c r="AE23" s="6"/>
       <c r="AF23" s="6"/>
     </row>
-    <row r="24" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -3467,7 +3467,7 @@
       <c r="AE24" s="6"/>
       <c r="AF24" s="6"/>
     </row>
-    <row r="25" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -3499,7 +3499,7 @@
       <c r="AE25" s="6"/>
       <c r="AF25" s="6"/>
     </row>
-    <row r="26" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -3531,7 +3531,7 @@
       <c r="AE26" s="6"/>
       <c r="AF26" s="6"/>
     </row>
-    <row r="27" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -3563,7 +3563,7 @@
       <c r="AE27" s="6"/>
       <c r="AF27" s="6"/>
     </row>
-    <row r="28" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -3595,7 +3595,7 @@
       <c r="AE28" s="6"/>
       <c r="AF28" s="6"/>
     </row>
-    <row r="29" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -3627,7 +3627,7 @@
       <c r="AE29" s="6"/>
       <c r="AF29" s="6"/>
     </row>
-    <row r="30" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -3659,7 +3659,7 @@
       <c r="AE30" s="6"/>
       <c r="AF30" s="6"/>
     </row>
-    <row r="31" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -3691,7 +3691,7 @@
       <c r="AE31" s="6"/>
       <c r="AF31" s="6"/>
     </row>
-    <row r="32" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -3723,7 +3723,7 @@
       <c r="AE32" s="6"/>
       <c r="AF32" s="6"/>
     </row>
-    <row r="33" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3755,7 +3755,7 @@
       <c r="AE33" s="6"/>
       <c r="AF33" s="6"/>
     </row>
-    <row r="34" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -3787,7 +3787,7 @@
       <c r="AE34" s="6"/>
       <c r="AF34" s="6"/>
     </row>
-    <row r="35" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:32" x14ac:dyDescent="0.4">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3819,7 +3819,7 @@
       <c r="AE35" s="6"/>
       <c r="AF35" s="6"/>
     </row>
-    <row r="36" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:32" x14ac:dyDescent="0.4">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3851,7 +3851,7 @@
       <c r="AE36" s="6"/>
       <c r="AF36" s="6"/>
     </row>
-    <row r="37" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:32" x14ac:dyDescent="0.4">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3883,9 +3883,9 @@
       <c r="AE37" s="6"/>
       <c r="AF37" s="6"/>
     </row>
-    <row r="39" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C39" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3908,7 +3908,7 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
@@ -3919,7 +3919,7 @@
       <c r="AE39" s="6"/>
       <c r="AF39" s="6"/>
     </row>
-    <row r="40" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -3951,7 +3951,7 @@
       <c r="AE40" s="6"/>
       <c r="AF40" s="6"/>
     </row>
-    <row r="41" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -3983,7 +3983,7 @@
       <c r="AE41" s="6"/>
       <c r="AF41" s="6"/>
     </row>
-    <row r="42" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -4015,7 +4015,7 @@
       <c r="AE42" s="6"/>
       <c r="AF42" s="6"/>
     </row>
-    <row r="43" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -4047,7 +4047,7 @@
       <c r="AE43" s="6"/>
       <c r="AF43" s="6"/>
     </row>
-    <row r="44" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -4079,7 +4079,7 @@
       <c r="AE44" s="6"/>
       <c r="AF44" s="6"/>
     </row>
-    <row r="45" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -4111,7 +4111,7 @@
       <c r="AE45" s="6"/>
       <c r="AF45" s="6"/>
     </row>
-    <row r="46" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -4143,7 +4143,7 @@
       <c r="AE46" s="6"/>
       <c r="AF46" s="6"/>
     </row>
-    <row r="47" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -4175,7 +4175,7 @@
       <c r="AE47" s="6"/>
       <c r="AF47" s="6"/>
     </row>
-    <row r="48" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -4207,7 +4207,7 @@
       <c r="AE48" s="6"/>
       <c r="AF48" s="6"/>
     </row>
-    <row r="49" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -4239,7 +4239,7 @@
       <c r="AE49" s="6"/>
       <c r="AF49" s="6"/>
     </row>
-    <row r="50" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -4271,7 +4271,7 @@
       <c r="AE50" s="6"/>
       <c r="AF50" s="6"/>
     </row>
-    <row r="51" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -4303,7 +4303,7 @@
       <c r="AE51" s="6"/>
       <c r="AF51" s="6"/>
     </row>
-    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:32" x14ac:dyDescent="0.4">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -4335,7 +4335,7 @@
       <c r="AE52" s="6"/>
       <c r="AF52" s="6"/>
     </row>
-    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.4">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -4367,7 +4367,7 @@
       <c r="AE53" s="6"/>
       <c r="AF53" s="6"/>
     </row>
-    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:32" x14ac:dyDescent="0.4">
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -4425,22 +4425,22 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="29.875" customWidth="1"/>
+    <col min="2" max="3" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="29.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.6">
       <c r="A1" s="12" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4452,69 +4452,69 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A7" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -4537,22 +4537,22 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="29.875" customWidth="1"/>
+    <col min="2" max="3" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="29.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.6">
       <c r="A1" s="12" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
